--- a/EXPT 2/21BRS1713_ResultTable.xlsx
+++ b/EXPT 2/21BRS1713_ResultTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER 4\DAA\LAB\EXPT 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE16471-F69A-470C-9834-5585651AB0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A853232-2B4A-4198-BD1C-6089A256C343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFF55ADB-15C6-414A-85DB-EB619A16984C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>RANDOM ORDER</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>DESCENDING ORDER</t>
+  </si>
+  <si>
+    <t>21BRS1713 MUHMMAD ABRAR</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,34 +150,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -184,6 +212,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -300,7 +349,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:f>Sheet1!$A$5:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -324,7 +373,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>Sheet1!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -648,7 +697,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -672,7 +721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$8</c:f>
+              <c:f>Sheet1!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -980,7 +1029,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:f>Sheet1!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1004,7 +1053,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:f>Sheet1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2853,13 +2902,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2889,13 +2938,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2925,13 +2974,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3257,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A177E1A-B0AF-4411-B1C3-D9A134A1070C}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,156 +3321,167 @@
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F3" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="10">
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="11">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.9959999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>10000</v>
-      </c>
-      <c r="B5" s="10">
-        <v>9.9267999999999995E-2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="11">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="E5" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.193771</v>
+      <c r="A5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.9959999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>20000</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0.39207599999999998</v>
-      </c>
-      <c r="C6" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="11">
-        <v>7.7000000000000001E-5</v>
-      </c>
-      <c r="E6" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.752413</v>
+      <c r="A6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9.9267999999999995E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.193771</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>30000</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0.87570400000000004</v>
-      </c>
-      <c r="C7" s="4">
-        <v>30000</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.2400000000000001E-4</v>
-      </c>
-      <c r="E7" s="7">
-        <v>30000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1.70835</v>
+      <c r="A7" s="6">
+        <v>20000</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.39207599999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.752413</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
+        <v>30000</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.87570400000000004</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.70835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>40000</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B9" s="6">
         <v>1.54908</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="2">
         <v>40000</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="2">
         <v>1.7100000000000001E-4</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="4">
         <v>40000</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="4">
         <v>3.0767899999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
